--- a/papers/automatic_machine.xlsx
+++ b/papers/automatic_machine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Translators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\translator\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>[≠]err</t>
   </si>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -376,30 +376,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,7 +417,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,9 +433,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -473,7 +473,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -545,7 +545,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -695,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73:E74"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -729,14 +729,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="20">
+      <c r="D2" s="22">
         <v>2</v>
       </c>
       <c r="E2" s="23" t="s">
@@ -744,13 +744,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="24"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -778,12 +778,12 @@
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="D6" s="8">
         <v>4</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
@@ -801,24 +801,24 @@
         <v>1</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="21"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="D9" s="8">
         <v>5</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -884,12 +884,12 @@
       <c r="D13" s="8">
         <v>6</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
@@ -897,7 +897,7 @@
       <c r="D14" s="8">
         <v>9</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -926,7 +926,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
@@ -948,7 +948,7 @@
       <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
@@ -959,7 +959,7 @@
       <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="D21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>0</v>
@@ -1209,40 +1209,40 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="8">
-        <v>37</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="8">
@@ -1252,83 +1252,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>39</v>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
+        <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="8">
-        <v>40</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
-        <v>40</v>
-      </c>
+      <c r="A41" s="17"/>
       <c r="B41" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="8">
-        <v>38</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="8">
-        <v>41</v>
-      </c>
-      <c r="E42" s="24"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="8"/>
+      <c r="D43" s="8">
+        <v>44</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>0</v>
@@ -1336,362 +1336,350 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>45</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="16">
+        <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8">
-        <v>47</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
       <c r="B48" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="8">
-        <v>47</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="16">
-        <v>47</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="8">
-        <v>45</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="8">
-        <v>48</v>
-      </c>
-      <c r="E50" s="24"/>
-    </row>
-    <row r="51" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
-        <v>48</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="A50" s="25">
+        <v>60</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="4">
+        <v>61</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3">
+        <v>62</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25">
-        <v>60</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="4">
-        <v>61</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>0</v>
-      </c>
+      <c r="A52" s="24"/>
+      <c r="B52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="18">
+        <v>63</v>
+      </c>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
+        <v>61</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C54" s="3">
         <v>62</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="23"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="3" t="s">
+      <c r="E54" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="24"/>
+      <c r="B55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="19">
+      <c r="C55" s="3"/>
+      <c r="D55" s="18">
         <v>63</v>
       </c>
-      <c r="E54" s="23"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="3" t="s">
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="24"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="16">
+      <c r="C56" s="3"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>62</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="8">
+        <v>63</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="16">
+        <v>63</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="18">
         <v>61</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="3">
-        <v>62</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="E58" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="24"/>
+      <c r="B59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
+      <c r="B60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="27"/>
+      <c r="B61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="29"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="25">
+        <v>70</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="4">
+        <v>70</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="17"/>
+      <c r="B63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="3">
+        <v>72</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="16">
+        <v>71</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="16">
+        <v>73</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="19">
-        <v>63</v>
-      </c>
-      <c r="E57" s="23"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="24"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>62</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="8">
-        <v>63</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="16">
-        <v>63</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="19">
-        <v>61</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="23"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="23"/>
-    </row>
-    <row r="63" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="27"/>
-      <c r="B63" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="25">
-        <v>70</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="4">
-        <v>70</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>50</v>
+      <c r="E64" s="20" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="3">
-        <v>72</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="23"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="16">
-        <v>71</v>
-      </c>
+      <c r="A66" s="24"/>
       <c r="B66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="16">
-        <v>73</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="23"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="23"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="20"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="23"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" s="17"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="23"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="23"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="21"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>72</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="8">
+        <v>73</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
+      <c r="A71" s="16">
+        <v>73</v>
+      </c>
       <c r="B71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="24"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>72</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="18">
+        <v>70</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="17"/>
       <c r="B72" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="8">
-        <v>73</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="16">
-        <v>73</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="19">
-        <v>70</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="24"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A5:A6"/>
@@ -1704,25 +1692,7 @@
     <mergeCell ref="E16:E21"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="D66:D71"/>
-    <mergeCell ref="E66:E71"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
